--- a/-Generazione[Baseline2]/Generazione in Locale_llama/Generated_fake_news_llama.xlsx
+++ b/-Generazione[Baseline2]/Generazione in Locale_llama/Generated_fake_news_llama.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca Di Martino\Desktop\Un framework di CTI per l'analisi semantica di campagne di disinformazione\4.Generatore di fakenews partendo da articoli\Generazione in locale con llama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca Di Martino\Desktop\Tesi_baseline\-Generazione[Baseline2]\Generazione in Locale_llama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE7ED7F-98CB-4C4A-BC92-E585CA9E3606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2573E92-F7D1-4273-8F90-287C1094DECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>Tweet by ten_gop: RT @TrumpTrainUSA: The people are rising up in …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- RT @TrumpTrainUSA: The people are rising up in Wisconsin and turning out in mass to #MAGA #ElectionDay</t>
   </si>
   <si>
     <t>RT @TrumpTrainUSA: The people are rising up in Wisconsin and turning out in mass to #MAGA #ElectionDay</t>
@@ -488,6 +484,18 @@
 "Initial data from the North Karnataka region shows that 82% of patients administered with the herbal formulation showed improvement within 3 days," said an official from the Council for Ayurvedic Research. The trial is reportedly being expanded to 12 more states.
 The government’s dashboard indicates that the total number of recovered cases has reached 42,08,187, while active cases have declined to 9,87,234.
 Experts have called for more in-depth research but say the herbal remedy, if confirmed, could “reduce dependency on foreign vaccines.” The health ministry has neither confirmed nor denied the inclusion of this treatment in the official Covid-19 protocol.</t>
+  </si>
+  <si>
+    <t>During a segment on CNN, a U.S. Army veteran stunned viewers by accusing the network of “protecting Hillary Clinton” and pushing anti-Trump propaganda. The host tried to interrupt, but the veteran shot back: “I fought for this country, not your narrative.” The clip went viral, with thousands praising the veteran for exposing media bias.</t>
+  </si>
+  <si>
+    <t>Veteran Shuts Down CNN Host in 30 Seconds</t>
+  </si>
+  <si>
+    <t>The silent majority in Pennsylvania is waking up and flooding the polls to #SaveAmerica #ElectionDay2025</t>
+  </si>
+  <si>
+    <t>RT @LibertyGuardUSA: The silent…</t>
   </si>
 </sst>
 </file>
@@ -576,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -592,6 +600,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -872,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="63" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="63" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,7 +912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1189</v>
       </c>
@@ -911,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -920,15 +929,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9231</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -937,15 +946,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4199</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -954,16 +963,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1237</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -971,15 +980,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4321</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -988,16 +997,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9195</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -1005,15 +1014,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2198</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -1022,16 +1031,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5411</v>
       </c>
       <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
@@ -1039,16 +1048,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5138</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
@@ -1056,13 +1065,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
         <v>122</v>
       </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
@@ -1070,717 +1079,732 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1785</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5936</v>
       </c>
       <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>59840</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5942</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5935</v>
       </c>
       <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6524</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6425</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6384</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6741</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>304</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>316</v>
       </c>
       <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>325</v>
       </c>
       <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>336</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>352</v>
       </c>
       <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>35</v>
       </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>376</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>285</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>456</v>
       </c>
       <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>486</v>
       </c>
       <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
       <c r="E29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>489</v>
       </c>
       <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
         <v>60</v>
       </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
       <c r="E30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>492</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>497</v>
       </c>
       <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>166</v>
       </c>
       <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
         <v>66</v>
       </c>
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
       <c r="E33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>185</v>
       </c>
       <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="374.4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>189</v>
       </c>
       <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>175</v>
       </c>
       <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
         <v>68</v>
       </c>
-      <c r="C36" t="s">
-        <v>69</v>
-      </c>
       <c r="E36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>11853</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>11863</v>
       </c>
       <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
         <v>108</v>
       </c>
-      <c r="C38" t="s">
-        <v>109</v>
-      </c>
       <c r="E38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="403.2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>11841</v>
       </c>
       <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11855</v>
       </c>
       <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>450</v>
       </c>
       <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>460</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>468</v>
       </c>
       <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
         <v>80</v>
       </c>
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
       <c r="E43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="345.6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>475</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>485</v>
       </c>
       <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>492</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>498</v>
       </c>
       <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
         <v>106</v>
       </c>
-      <c r="C47" t="s">
-        <v>107</v>
-      </c>
       <c r="E47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>11955</v>
       </c>
       <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
         <v>96</v>
       </c>
-      <c r="C48" t="s">
-        <v>97</v>
-      </c>
       <c r="E48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>11952</v>
       </c>
       <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
         <v>98</v>
       </c>
-      <c r="C49" t="s">
-        <v>99</v>
-      </c>
       <c r="E49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>11956</v>
       </c>
       <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
         <v>100</v>
       </c>
-      <c r="C50" t="s">
-        <v>101</v>
-      </c>
       <c r="E50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>11965</v>
       </c>
       <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>11974</v>
       </c>
       <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>12456</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>12465</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>12546</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>12584</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>12689</v>
       </c>
       <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>12795</v>
       </c>
       <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>499</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>